--- a/docs/excel/TTask.xlsx
+++ b/docs/excel/TTask.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="58">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -90,10 +90,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6002-100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Count</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -110,43 +106,126 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>注册账户</t>
-  </si>
-  <si>
-    <t>被邀请人达到目标分数</t>
-  </si>
-  <si>
     <t>TableName: "TTask" Package: "table" CSClassHeader: "[System.Serializable]"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>达到目标分数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>奖励</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>邀请其他玩家注册游戏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>6002-10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6002-100</t>
+    <t>int32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubTask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享1次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享3次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享5次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享7次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃鸡1次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃鸡3次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃鸡5次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参加3局比赛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参加5局比赛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参加7局比赛</t>
+  </si>
+  <si>
+    <t>参加10局比赛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃鸡2次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得1000金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得2000金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得5000金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得10000金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘汰10名玩家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘汰50名玩家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘汰100名玩家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘汰200名玩家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6001-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6001-2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6001-3000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6001-4000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainTask</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -564,1450 +643,2292 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D304"/>
+  <dimension ref="A1:F303"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="41.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.09765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28.09765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="2" max="2" width="11.796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.09765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.09765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.09765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1001</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>28</v>
+      <c r="B5">
+        <v>1000</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1002</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>31</v>
+      <c r="B6">
+        <v>1000</v>
       </c>
       <c r="C6">
-        <v>10000</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1003</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>29</v>
+      <c r="B7">
+        <v>1000</v>
       </c>
       <c r="C7">
-        <v>10000</v>
-      </c>
-      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F7" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1004</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>33</v>
+      <c r="B8">
+        <v>1000</v>
       </c>
       <c r="C8">
-        <v>99999</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15"/>
-      <c r="B15"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18"/>
-      <c r="B18"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19"/>
-      <c r="B19"/>
-      <c r="C19"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20"/>
-      <c r="B20"/>
-      <c r="C20"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21"/>
-      <c r="B21"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22"/>
-      <c r="B22"/>
-      <c r="C22"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23"/>
-      <c r="B23"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24"/>
-      <c r="B24"/>
-      <c r="C24"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2001</v>
+      </c>
+      <c r="B9">
+        <v>2000</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2002</v>
+      </c>
+      <c r="B10">
+        <v>2000</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2003</v>
+      </c>
+      <c r="B11">
+        <v>2000</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2004</v>
+      </c>
+      <c r="B12">
+        <v>2000</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>3001</v>
+      </c>
+      <c r="B13">
+        <v>3000</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>3002</v>
+      </c>
+      <c r="B14">
+        <v>3000</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>5</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>3003</v>
+      </c>
+      <c r="B15">
+        <v>3000</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>7</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>3004</v>
+      </c>
+      <c r="B16">
+        <v>3000</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>4001</v>
+      </c>
+      <c r="B17">
+        <v>4000</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>4002</v>
+      </c>
+      <c r="B18">
+        <v>4000</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>2000</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>4003</v>
+      </c>
+      <c r="B19">
+        <v>4000</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>5000</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>4004</v>
+      </c>
+      <c r="B20">
+        <v>4000</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20" s="1">
+        <v>10000</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>5001</v>
+      </c>
+      <c r="B21">
+        <v>5000</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>5002</v>
+      </c>
+      <c r="B22">
+        <v>5000</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>50</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>5003</v>
+      </c>
+      <c r="B23">
+        <v>5000</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>100</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>5004</v>
+      </c>
+      <c r="B24">
+        <v>5000</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24" s="1">
+        <v>200</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25"/>
       <c r="B25"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E26"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27"/>
       <c r="B27"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C27"/>
+      <c r="E27"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28"/>
       <c r="B28"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E29"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30"/>
       <c r="B30"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C30"/>
+      <c r="E30"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31"/>
       <c r="B31"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E32"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33"/>
       <c r="B33"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C33"/>
+      <c r="E33"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34"/>
       <c r="B34"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E35"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36"/>
       <c r="B36"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E37"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38"/>
       <c r="B38"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E39"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40"/>
       <c r="B40"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E41"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42"/>
       <c r="B42"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E43"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44"/>
       <c r="B44"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E45"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46"/>
       <c r="B46"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E47"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48"/>
       <c r="B48"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49"/>
       <c r="B49"/>
       <c r="C49"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E49"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50"/>
       <c r="B50"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51"/>
       <c r="B51"/>
       <c r="C51"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E51"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52"/>
       <c r="B52"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C52"/>
+      <c r="D52"/>
+      <c r="E52"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53"/>
       <c r="B53"/>
       <c r="C53"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E53"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54"/>
       <c r="B54"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C54"/>
+      <c r="E54"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55"/>
       <c r="B55"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C55"/>
+      <c r="E55"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56"/>
       <c r="B56"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C56"/>
+      <c r="E56"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57"/>
       <c r="B57"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C57"/>
+      <c r="E57"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58"/>
       <c r="B58"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C58"/>
+      <c r="E58"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59"/>
       <c r="B59"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C59"/>
+      <c r="E59"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60"/>
       <c r="B60"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C60"/>
+      <c r="E60"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61"/>
       <c r="B61"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C61"/>
+      <c r="E61"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62"/>
       <c r="B62"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C62"/>
+      <c r="E62"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63"/>
       <c r="B63"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C63"/>
+      <c r="E63"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64"/>
       <c r="B64"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C64"/>
+      <c r="E64"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65"/>
       <c r="B65"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C65"/>
+      <c r="E65"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66"/>
       <c r="B66"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C66"/>
+      <c r="E66"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67"/>
       <c r="B67"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C67"/>
+      <c r="D67"/>
+      <c r="E67"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68"/>
       <c r="B68"/>
       <c r="C68"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E68"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69"/>
       <c r="B69"/>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C69"/>
+      <c r="D69"/>
+      <c r="E69"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70"/>
       <c r="B70"/>
       <c r="C70"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E70"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71"/>
       <c r="B71"/>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C71"/>
+      <c r="D71"/>
+      <c r="E71"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72"/>
       <c r="B72"/>
       <c r="C72"/>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E72"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73"/>
       <c r="B73"/>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C73"/>
+      <c r="D73"/>
+      <c r="E73"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74"/>
       <c r="B74"/>
       <c r="C74"/>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E74"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75"/>
       <c r="B75"/>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C75"/>
+      <c r="D75"/>
+      <c r="E75"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76"/>
       <c r="B76"/>
       <c r="C76"/>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E76"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77"/>
       <c r="B77"/>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C77"/>
+      <c r="D77"/>
+      <c r="E77"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78"/>
       <c r="B78"/>
       <c r="C78"/>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E78"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79"/>
       <c r="B79"/>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C79"/>
+      <c r="D79"/>
+      <c r="E79"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80"/>
       <c r="B80"/>
       <c r="C80"/>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E80"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81"/>
       <c r="B81"/>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C81"/>
+      <c r="D81"/>
+      <c r="E81"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82"/>
       <c r="B82"/>
       <c r="C82"/>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E82"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83"/>
       <c r="B83"/>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C83"/>
+      <c r="D83"/>
+      <c r="E83"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84"/>
       <c r="B84"/>
       <c r="C84"/>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E84"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85"/>
       <c r="B85"/>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C85"/>
+      <c r="D85"/>
+      <c r="E85"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86"/>
       <c r="B86"/>
       <c r="C86"/>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E86"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87"/>
       <c r="B87"/>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C87"/>
+      <c r="D87"/>
+      <c r="E87"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88"/>
       <c r="B88"/>
       <c r="C88"/>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E88"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89"/>
       <c r="B89"/>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C89"/>
+      <c r="D89"/>
+      <c r="E89"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90"/>
       <c r="B90"/>
       <c r="C90"/>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E90"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91"/>
       <c r="B91"/>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C91"/>
+      <c r="D91"/>
+      <c r="E91"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92"/>
       <c r="B92"/>
       <c r="C92"/>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E92"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93"/>
       <c r="B93"/>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C93"/>
+      <c r="D93"/>
+      <c r="E93"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94"/>
       <c r="B94"/>
       <c r="C94"/>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E94"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95"/>
       <c r="B95"/>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C95"/>
+      <c r="D95"/>
+      <c r="E95"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96"/>
       <c r="B96"/>
       <c r="C96"/>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E96"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97"/>
       <c r="B97"/>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C97"/>
+      <c r="D97"/>
+      <c r="E97"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98"/>
       <c r="B98"/>
       <c r="C98"/>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E98"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99"/>
       <c r="B99"/>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C99"/>
+      <c r="D99"/>
+      <c r="E99"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100"/>
       <c r="B100"/>
       <c r="C100"/>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E100"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101"/>
       <c r="B101"/>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C101"/>
+      <c r="D101"/>
+      <c r="E101"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102"/>
       <c r="B102"/>
       <c r="C102"/>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E102"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103"/>
       <c r="B103"/>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C103"/>
+      <c r="D103"/>
+      <c r="E103"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104"/>
       <c r="B104"/>
       <c r="C104"/>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E104"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105"/>
       <c r="B105"/>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C105"/>
+      <c r="D105"/>
+      <c r="E105"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106"/>
       <c r="B106"/>
       <c r="C106"/>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E106"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107"/>
       <c r="B107"/>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C107"/>
+      <c r="D107"/>
+      <c r="E107"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108"/>
       <c r="B108"/>
       <c r="C108"/>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E108"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109"/>
       <c r="B109"/>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C109"/>
+      <c r="D109"/>
+      <c r="E109"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110"/>
       <c r="B110"/>
       <c r="C110"/>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E110"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111"/>
       <c r="B111"/>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C111"/>
+      <c r="D111"/>
+      <c r="E111"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112"/>
       <c r="B112"/>
       <c r="C112"/>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E112"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113"/>
       <c r="B113"/>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C113"/>
+      <c r="D113"/>
+      <c r="E113"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114"/>
       <c r="B114"/>
       <c r="C114"/>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E114"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115"/>
       <c r="B115"/>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C115"/>
+      <c r="D115"/>
+      <c r="E115"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116"/>
       <c r="B116"/>
       <c r="C116"/>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E116"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117"/>
       <c r="B117"/>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C117"/>
+      <c r="D117"/>
+      <c r="E117"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118"/>
       <c r="B118"/>
       <c r="C118"/>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E118"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119"/>
       <c r="B119"/>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C119"/>
+      <c r="D119"/>
+      <c r="E119"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120"/>
       <c r="B120"/>
       <c r="C120"/>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E120"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121"/>
       <c r="B121"/>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C121"/>
+      <c r="D121"/>
+      <c r="E121"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122"/>
       <c r="B122"/>
       <c r="C122"/>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E122"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123"/>
       <c r="B123"/>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C123"/>
+      <c r="D123"/>
+      <c r="E123"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124"/>
       <c r="B124"/>
       <c r="C124"/>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E124"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125"/>
       <c r="B125"/>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C125"/>
+      <c r="D125"/>
+      <c r="E125"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126"/>
       <c r="B126"/>
       <c r="C126"/>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E126"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127"/>
       <c r="B127"/>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C127"/>
+      <c r="D127"/>
+      <c r="E127"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128"/>
       <c r="B128"/>
       <c r="C128"/>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E128"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129"/>
       <c r="B129"/>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C129"/>
+      <c r="D129"/>
+      <c r="E129"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130"/>
       <c r="B130"/>
       <c r="C130"/>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E130"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131"/>
       <c r="B131"/>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C131"/>
+      <c r="D131"/>
+      <c r="E131"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132"/>
       <c r="B132"/>
       <c r="C132"/>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E132"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133"/>
       <c r="B133"/>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C133"/>
+      <c r="D133"/>
+      <c r="E133"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134"/>
       <c r="B134"/>
       <c r="C134"/>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E134"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135"/>
       <c r="B135"/>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C135"/>
+      <c r="D135"/>
+      <c r="E135"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136"/>
       <c r="B136"/>
       <c r="C136"/>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E136"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137"/>
       <c r="B137"/>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C137"/>
+      <c r="D137"/>
+      <c r="E137"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138"/>
       <c r="B138"/>
       <c r="C138"/>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E138"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139"/>
       <c r="B139"/>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C139"/>
+      <c r="D139"/>
+      <c r="E139"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140"/>
       <c r="B140"/>
       <c r="C140"/>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E140"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141"/>
       <c r="B141"/>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C141"/>
+      <c r="D141"/>
+      <c r="E141"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142"/>
       <c r="B142"/>
       <c r="C142"/>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E142"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143"/>
       <c r="B143"/>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C143"/>
+      <c r="D143"/>
+      <c r="E143"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144"/>
       <c r="B144"/>
       <c r="C144"/>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E144"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145"/>
       <c r="B145"/>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C145"/>
+      <c r="D145"/>
+      <c r="E145"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146"/>
       <c r="B146"/>
       <c r="C146"/>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E146"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147"/>
       <c r="B147"/>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C147"/>
+      <c r="D147"/>
+      <c r="E147"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148"/>
       <c r="B148"/>
       <c r="C148"/>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E148"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149"/>
       <c r="B149"/>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C149"/>
+      <c r="D149"/>
+      <c r="E149"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150"/>
       <c r="B150"/>
       <c r="C150"/>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E150"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151"/>
       <c r="B151"/>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C151"/>
+      <c r="D151"/>
+      <c r="E151"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152"/>
       <c r="B152"/>
       <c r="C152"/>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E152"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153"/>
       <c r="B153"/>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C153"/>
+      <c r="D153"/>
+      <c r="E153"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154"/>
       <c r="B154"/>
       <c r="C154"/>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E154"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155"/>
       <c r="B155"/>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C155"/>
+      <c r="D155"/>
+      <c r="E155"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156"/>
       <c r="B156"/>
       <c r="C156"/>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E156"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157"/>
       <c r="B157"/>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C157"/>
+      <c r="D157"/>
+      <c r="E157"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158"/>
       <c r="B158"/>
       <c r="C158"/>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E158"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159"/>
       <c r="B159"/>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C159"/>
+      <c r="D159"/>
+      <c r="E159"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160"/>
       <c r="B160"/>
       <c r="C160"/>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E160"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161"/>
       <c r="B161"/>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C161"/>
+      <c r="D161"/>
+      <c r="E161"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162"/>
       <c r="B162"/>
       <c r="C162"/>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E162"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163"/>
       <c r="B163"/>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C163"/>
+      <c r="D163"/>
+      <c r="E163"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164"/>
       <c r="B164"/>
       <c r="C164"/>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E164"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165"/>
       <c r="B165"/>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C165"/>
+      <c r="D165"/>
+      <c r="E165"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166"/>
       <c r="B166"/>
       <c r="C166"/>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E166"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167"/>
       <c r="B167"/>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C167"/>
+      <c r="D167"/>
+      <c r="E167"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168"/>
       <c r="B168"/>
       <c r="C168"/>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E168"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169"/>
       <c r="B169"/>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C169"/>
+      <c r="D169"/>
+      <c r="E169"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170"/>
       <c r="B170"/>
       <c r="C170"/>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E170"/>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171"/>
       <c r="B171"/>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C171"/>
+      <c r="D171"/>
+      <c r="E171"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172"/>
       <c r="B172"/>
       <c r="C172"/>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E172"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173"/>
       <c r="B173"/>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C173"/>
+      <c r="D173"/>
+      <c r="E173"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174"/>
       <c r="B174"/>
       <c r="C174"/>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E174"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175"/>
       <c r="B175"/>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C175"/>
+      <c r="D175"/>
+      <c r="E175"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176"/>
       <c r="B176"/>
       <c r="C176"/>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E176"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177"/>
       <c r="B177"/>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C177"/>
+      <c r="D177"/>
+      <c r="E177"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178"/>
       <c r="B178"/>
       <c r="C178"/>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E178"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179"/>
       <c r="B179"/>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C179"/>
+      <c r="D179"/>
+      <c r="E179"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180"/>
       <c r="B180"/>
       <c r="C180"/>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E180"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181"/>
       <c r="B181"/>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C181"/>
+      <c r="D181"/>
+      <c r="E181"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182"/>
       <c r="B182"/>
       <c r="C182"/>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E182"/>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183"/>
       <c r="B183"/>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C183"/>
+      <c r="D183"/>
+      <c r="E183"/>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184"/>
       <c r="B184"/>
       <c r="C184"/>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E184"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185"/>
       <c r="B185"/>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C185"/>
+      <c r="D185"/>
+      <c r="E185"/>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186"/>
       <c r="B186"/>
       <c r="C186"/>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E186"/>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187"/>
       <c r="B187"/>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C187"/>
+      <c r="D187"/>
+      <c r="E187"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188"/>
       <c r="B188"/>
       <c r="C188"/>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E188"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189"/>
       <c r="B189"/>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C189"/>
+      <c r="D189"/>
+      <c r="E189"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190"/>
       <c r="B190"/>
       <c r="C190"/>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E190"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191"/>
       <c r="B191"/>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C191"/>
+      <c r="D191"/>
+      <c r="E191"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192"/>
       <c r="B192"/>
       <c r="C192"/>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E192"/>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193"/>
       <c r="B193"/>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C193"/>
+      <c r="D193"/>
+      <c r="E193"/>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194"/>
       <c r="B194"/>
       <c r="C194"/>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E194"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195"/>
       <c r="B195"/>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C195"/>
+      <c r="D195"/>
+      <c r="E195"/>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196"/>
       <c r="B196"/>
       <c r="C196"/>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E196"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197"/>
       <c r="B197"/>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C197"/>
+      <c r="D197"/>
+      <c r="E197"/>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198"/>
       <c r="B198"/>
       <c r="C198"/>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E198"/>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199"/>
       <c r="B199"/>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C199"/>
+      <c r="D199"/>
+      <c r="E199"/>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200"/>
       <c r="B200"/>
       <c r="C200"/>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E200"/>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201"/>
       <c r="B201"/>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C201"/>
+      <c r="D201"/>
+      <c r="E201"/>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202"/>
       <c r="B202"/>
       <c r="C202"/>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E202"/>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203"/>
       <c r="B203"/>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C203"/>
+      <c r="D203"/>
+      <c r="E203"/>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204"/>
       <c r="B204"/>
       <c r="C204"/>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E204"/>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205"/>
       <c r="B205"/>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C205"/>
+      <c r="D205"/>
+      <c r="E205"/>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206"/>
       <c r="B206"/>
       <c r="C206"/>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E206"/>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207"/>
       <c r="B207"/>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C207"/>
+      <c r="D207"/>
+      <c r="E207"/>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208"/>
       <c r="B208"/>
       <c r="C208"/>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E208"/>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209"/>
       <c r="B209"/>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C209"/>
+      <c r="D209"/>
+      <c r="E209"/>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210"/>
       <c r="B210"/>
       <c r="C210"/>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E210"/>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211"/>
       <c r="B211"/>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C211"/>
+      <c r="D211"/>
+      <c r="E211"/>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212"/>
       <c r="B212"/>
       <c r="C212"/>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E212"/>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213"/>
       <c r="B213"/>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C213"/>
+      <c r="D213"/>
+      <c r="E213"/>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214"/>
       <c r="B214"/>
       <c r="C214"/>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E214"/>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215"/>
       <c r="B215"/>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C215"/>
+      <c r="D215"/>
+      <c r="E215"/>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216"/>
       <c r="B216"/>
       <c r="C216"/>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E216"/>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217"/>
       <c r="B217"/>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C217"/>
+      <c r="D217"/>
+      <c r="E217"/>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218"/>
       <c r="B218"/>
       <c r="C218"/>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E218"/>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219"/>
       <c r="B219"/>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C219"/>
+      <c r="D219"/>
+      <c r="E219"/>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220"/>
       <c r="B220"/>
       <c r="C220"/>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E220"/>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221"/>
       <c r="B221"/>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C221"/>
+      <c r="D221"/>
+      <c r="E221"/>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222"/>
       <c r="B222"/>
       <c r="C222"/>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E222"/>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223"/>
       <c r="B223"/>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C223"/>
+      <c r="D223"/>
+      <c r="E223"/>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224"/>
       <c r="B224"/>
       <c r="C224"/>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E224"/>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225"/>
       <c r="B225"/>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C225"/>
+      <c r="D225"/>
+      <c r="E225"/>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226"/>
       <c r="B226"/>
       <c r="C226"/>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E226"/>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227"/>
       <c r="B227"/>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C227"/>
+      <c r="D227"/>
+      <c r="E227"/>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228"/>
       <c r="B228"/>
       <c r="C228"/>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E228"/>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229"/>
       <c r="B229"/>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C229"/>
+      <c r="D229"/>
+      <c r="E229"/>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230"/>
       <c r="B230"/>
       <c r="C230"/>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E230"/>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231"/>
       <c r="B231"/>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C231"/>
+      <c r="D231"/>
+      <c r="E231"/>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232"/>
       <c r="B232"/>
       <c r="C232"/>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E232"/>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233"/>
       <c r="B233"/>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C233"/>
+      <c r="D233"/>
+      <c r="E233"/>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234"/>
       <c r="B234"/>
       <c r="C234"/>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E234"/>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235"/>
       <c r="B235"/>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C235"/>
+      <c r="D235"/>
+      <c r="E235"/>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236"/>
       <c r="B236"/>
       <c r="C236"/>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E236"/>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237"/>
       <c r="B237"/>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C237"/>
+      <c r="D237"/>
+      <c r="E237"/>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238"/>
       <c r="B238"/>
       <c r="C238"/>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E238"/>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239"/>
       <c r="B239"/>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C239"/>
+      <c r="D239"/>
+      <c r="E239"/>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240"/>
       <c r="B240"/>
       <c r="C240"/>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E240"/>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241"/>
       <c r="B241"/>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C241"/>
+      <c r="D241"/>
+      <c r="E241"/>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242"/>
       <c r="B242"/>
       <c r="C242"/>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E242"/>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243"/>
       <c r="B243"/>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C243"/>
+      <c r="D243"/>
+      <c r="E243"/>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244"/>
       <c r="B244"/>
       <c r="C244"/>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E244"/>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245"/>
       <c r="B245"/>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C245"/>
+      <c r="D245"/>
+      <c r="E245"/>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246"/>
       <c r="B246"/>
       <c r="C246"/>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E246"/>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247"/>
       <c r="B247"/>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C247"/>
+      <c r="D247"/>
+      <c r="E247"/>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248"/>
       <c r="B248"/>
       <c r="C248"/>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E248"/>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249"/>
       <c r="B249"/>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C249"/>
+      <c r="D249"/>
+      <c r="E249"/>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250"/>
       <c r="B250"/>
       <c r="C250"/>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E250"/>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251"/>
       <c r="B251"/>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C251"/>
+      <c r="D251"/>
+      <c r="E251"/>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252"/>
       <c r="B252"/>
       <c r="C252"/>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E252"/>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253"/>
       <c r="B253"/>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C253"/>
+      <c r="D253"/>
+      <c r="E253"/>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254"/>
       <c r="B254"/>
       <c r="C254"/>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E254"/>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255"/>
       <c r="B255"/>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C255"/>
+      <c r="D255"/>
+      <c r="E255"/>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256"/>
       <c r="B256"/>
       <c r="C256"/>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E256"/>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257"/>
       <c r="B257"/>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C257"/>
+      <c r="D257"/>
+      <c r="E257"/>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258"/>
       <c r="B258"/>
       <c r="C258"/>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E258"/>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259"/>
       <c r="B259"/>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C259"/>
+      <c r="D259"/>
+      <c r="E259"/>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260"/>
       <c r="B260"/>
       <c r="C260"/>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E260"/>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261"/>
       <c r="B261"/>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C261"/>
+      <c r="D261"/>
+      <c r="E261"/>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262"/>
       <c r="B262"/>
       <c r="C262"/>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E262"/>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263"/>
       <c r="B263"/>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C263"/>
+      <c r="D263"/>
+      <c r="E263"/>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264"/>
       <c r="B264"/>
       <c r="C264"/>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E264"/>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265"/>
       <c r="B265"/>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C265"/>
+      <c r="D265"/>
+      <c r="E265"/>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266"/>
       <c r="B266"/>
       <c r="C266"/>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E266"/>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267"/>
       <c r="B267"/>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C267"/>
+      <c r="D267"/>
+      <c r="E267"/>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268"/>
       <c r="B268"/>
       <c r="C268"/>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E268"/>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269"/>
       <c r="B269"/>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C269"/>
+      <c r="D269"/>
+      <c r="E269"/>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270"/>
       <c r="B270"/>
       <c r="C270"/>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E270"/>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271"/>
       <c r="B271"/>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C271"/>
+      <c r="D271"/>
+      <c r="E271"/>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272"/>
       <c r="B272"/>
       <c r="C272"/>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E272"/>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273"/>
       <c r="B273"/>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C273"/>
+      <c r="D273"/>
+      <c r="E273"/>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274"/>
       <c r="B274"/>
       <c r="C274"/>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E274"/>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275"/>
       <c r="B275"/>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C275"/>
+      <c r="D275"/>
+      <c r="E275"/>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276"/>
       <c r="B276"/>
       <c r="C276"/>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E276"/>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277"/>
       <c r="B277"/>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C277"/>
+      <c r="D277"/>
+      <c r="E277"/>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278"/>
       <c r="B278"/>
       <c r="C278"/>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E278"/>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279"/>
       <c r="B279"/>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C279"/>
+      <c r="D279"/>
+      <c r="E279"/>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280"/>
       <c r="B280"/>
       <c r="C280"/>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E280"/>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281"/>
       <c r="B281"/>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C281"/>
+      <c r="D281"/>
+      <c r="E281"/>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282"/>
       <c r="B282"/>
       <c r="C282"/>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E282"/>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283"/>
       <c r="B283"/>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C283"/>
+      <c r="D283"/>
+      <c r="E283"/>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284"/>
       <c r="B284"/>
       <c r="C284"/>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E284"/>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285"/>
       <c r="B285"/>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C285"/>
+      <c r="D285"/>
+      <c r="E285"/>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286"/>
       <c r="B286"/>
       <c r="C286"/>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E286"/>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287"/>
       <c r="B287"/>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C287"/>
+      <c r="D287"/>
+      <c r="E287"/>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288"/>
       <c r="B288"/>
       <c r="C288"/>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E288"/>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289"/>
       <c r="B289"/>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C289"/>
+      <c r="D289"/>
+      <c r="E289"/>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290"/>
       <c r="B290"/>
       <c r="C290"/>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E290"/>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291"/>
       <c r="B291"/>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C291"/>
+      <c r="D291"/>
+      <c r="E291"/>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292"/>
       <c r="B292"/>
       <c r="C292"/>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E292"/>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293"/>
       <c r="B293"/>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C293"/>
+      <c r="D293"/>
+      <c r="E293"/>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294"/>
       <c r="B294"/>
       <c r="C294"/>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E294"/>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295"/>
       <c r="B295"/>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C295"/>
+      <c r="D295"/>
+      <c r="E295"/>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296"/>
       <c r="B296"/>
       <c r="C296"/>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E296"/>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297"/>
       <c r="B297"/>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C297"/>
+      <c r="D297"/>
+      <c r="E297"/>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298"/>
       <c r="B298"/>
       <c r="C298"/>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E298"/>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299"/>
       <c r="B299"/>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C299"/>
+      <c r="D299"/>
+      <c r="E299"/>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300"/>
       <c r="B300"/>
       <c r="C300"/>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E300"/>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301"/>
       <c r="B301"/>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C301"/>
+      <c r="D301"/>
+      <c r="E301"/>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302"/>
       <c r="B302"/>
       <c r="C302"/>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E302"/>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303"/>
       <c r="B303"/>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A304"/>
-      <c r="B304"/>
-      <c r="C304"/>
+      <c r="C303"/>
+      <c r="D303"/>
+      <c r="E303"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2037,7 +2958,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">

--- a/docs/excel/TTask.xlsx
+++ b/docs/excel/TTask.xlsx
@@ -74,10 +74,6 @@
     <t>ObjectType</t>
   </si>
   <si>
-    <t>uint32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Reward</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -226,6 +222,10 @@
   </si>
   <si>
     <t>MainTask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -646,7 +646,7 @@
   <dimension ref="A1:F303"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -664,39 +664,39 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" t="s">
-        <v>24</v>
-      </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -706,22 +706,22 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="E4" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -738,10 +738,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -758,10 +758,10 @@
         <v>3</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -778,10 +778,10 @@
         <v>5</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -798,10 +798,10 @@
         <v>7</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -818,10 +818,10 @@
         <v>1</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -838,10 +838,10 @@
         <v>2</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -858,10 +858,10 @@
         <v>3</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -878,10 +878,10 @@
         <v>5</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -898,10 +898,10 @@
         <v>3</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -918,10 +918,10 @@
         <v>5</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -938,10 +938,10 @@
         <v>7</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -958,10 +958,10 @@
         <v>10</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -978,10 +978,10 @@
         <v>1000</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -998,10 +998,10 @@
         <v>2000</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1018,10 +1018,10 @@
         <v>5000</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1038,10 +1038,10 @@
         <v>10000</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1058,10 +1058,10 @@
         <v>10</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -1078,10 +1078,10 @@
         <v>50</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -1098,10 +1098,10 @@
         <v>100</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1118,10 +1118,10 @@
         <v>200</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -2958,7 +2958,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">

--- a/docs/excel/TTask.xlsx
+++ b/docs/excel/TTask.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="57">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -130,30 +130,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>分享3次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分享5次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分享7次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吃鸡1次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吃鸡3次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吃鸡5次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>参加3局比赛</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -169,26 +145,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>吃鸡2次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得1000金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得2000金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得5000金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得10000金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>淘汰10名玩家</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -227,6 +183,42 @@
   <si>
     <t>int32</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享1次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6001-2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得比赛最终胜利1次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得比赛最终胜利2次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得比赛最终胜利3次</t>
+  </si>
+  <si>
+    <t>获得比赛最终胜利4次</t>
+  </si>
+  <si>
+    <t>比赛中赢得1000金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比赛中赢得2000金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比赛中赢得3000金币</t>
+  </si>
+  <si>
+    <t>比赛中赢得4000金币</t>
   </si>
 </sst>
 </file>
@@ -643,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F303"/>
+  <dimension ref="A1:F309"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -664,7 +656,7 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
         <v>29</v>
@@ -681,7 +673,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
         <v>28</v>
@@ -741,7 +733,7 @@
         <v>32</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -755,13 +747,13 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -775,13 +767,13 @@
         <v>3</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -795,372 +787,454 @@
         <v>4</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>2001</v>
+        <v>1005</v>
       </c>
       <c r="B9">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>2002</v>
+        <v>1006</v>
       </c>
       <c r="B10">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>2003</v>
+        <v>1007</v>
       </c>
       <c r="B11">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>2004</v>
+        <v>1008</v>
       </c>
       <c r="B12">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>3001</v>
+        <v>1009</v>
       </c>
       <c r="B13">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="C13">
+        <v>9</v>
+      </c>
+      <c r="D13">
         <v>1</v>
       </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
       <c r="E13" s="5" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>3002</v>
+        <v>1010</v>
       </c>
       <c r="B14">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14" s="1">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>3003</v>
+        <v>2001</v>
       </c>
       <c r="B15">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>3004</v>
+        <v>2002</v>
       </c>
       <c r="B16">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>4001</v>
+        <v>2003</v>
       </c>
       <c r="B17">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1000</v>
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>4002</v>
+        <v>2004</v>
       </c>
       <c r="B18">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18">
-        <v>2000</v>
+        <v>5</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>4003</v>
+        <v>3001</v>
       </c>
       <c r="B19">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
         <v>3</v>
       </c>
-      <c r="D19">
-        <v>5000</v>
-      </c>
       <c r="E19" s="5" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>4004</v>
+        <v>3002</v>
       </c>
       <c r="B20">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" s="1">
-        <v>10000</v>
+        <v>5</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>5001</v>
+        <v>3003</v>
       </c>
       <c r="B21">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D21">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>5002</v>
+        <v>3004</v>
       </c>
       <c r="B22">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="D22" s="1">
-        <v>50</v>
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>5003</v>
+        <v>4001</v>
       </c>
       <c r="B23">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="C23">
-        <v>3</v>
-      </c>
-      <c r="D23">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1000</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
+        <v>4002</v>
+      </c>
+      <c r="B24">
+        <v>4000</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>2000</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>4003</v>
+      </c>
+      <c r="B25">
+        <v>4000</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>5000</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>4004</v>
+      </c>
+      <c r="B26">
+        <v>4000</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26" s="1">
+        <v>10000</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>5001</v>
+      </c>
+      <c r="B27">
+        <v>5000</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>10</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>5002</v>
+      </c>
+      <c r="B28">
+        <v>5000</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1">
+        <v>50</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>5003</v>
+      </c>
+      <c r="B29">
+        <v>5000</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>100</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>5004</v>
       </c>
-      <c r="B24">
+      <c r="B30">
         <v>5000</v>
       </c>
-      <c r="C24">
+      <c r="C30">
         <v>4</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D30" s="1">
         <v>200</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25"/>
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26"/>
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="E26"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27"/>
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="E27"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28"/>
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29"/>
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="E29"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30"/>
-      <c r="B30"/>
-      <c r="C30"/>
-      <c r="E30"/>
+      <c r="E30" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31"/>
@@ -1198,20 +1272,19 @@
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36"/>
-      <c r="D36"/>
       <c r="E36"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37"/>
+      <c r="D37"/>
       <c r="E37"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
-      <c r="D38"/>
       <c r="E38"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -1315,6 +1388,7 @@
       <c r="A54"/>
       <c r="B54"/>
       <c r="C54"/>
+      <c r="D54"/>
       <c r="E54"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -1327,6 +1401,7 @@
       <c r="A56"/>
       <c r="B56"/>
       <c r="C56"/>
+      <c r="D56"/>
       <c r="E56"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -1339,6 +1414,7 @@
       <c r="A58"/>
       <c r="B58"/>
       <c r="C58"/>
+      <c r="D58"/>
       <c r="E58"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -1393,7 +1469,6 @@
       <c r="A67"/>
       <c r="B67"/>
       <c r="C67"/>
-      <c r="D67"/>
       <c r="E67"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -1406,7 +1481,6 @@
       <c r="A69"/>
       <c r="B69"/>
       <c r="C69"/>
-      <c r="D69"/>
       <c r="E69"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -1419,7 +1493,6 @@
       <c r="A71"/>
       <c r="B71"/>
       <c r="C71"/>
-      <c r="D71"/>
       <c r="E71"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -2929,6 +3002,45 @@
       <c r="C303"/>
       <c r="D303"/>
       <c r="E303"/>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A304"/>
+      <c r="B304"/>
+      <c r="C304"/>
+      <c r="E304"/>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A305"/>
+      <c r="B305"/>
+      <c r="C305"/>
+      <c r="D305"/>
+      <c r="E305"/>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A306"/>
+      <c r="B306"/>
+      <c r="C306"/>
+      <c r="E306"/>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A307"/>
+      <c r="B307"/>
+      <c r="C307"/>
+      <c r="D307"/>
+      <c r="E307"/>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A308"/>
+      <c r="B308"/>
+      <c r="C308"/>
+      <c r="E308"/>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A309"/>
+      <c r="B309"/>
+      <c r="C309"/>
+      <c r="D309"/>
+      <c r="E309"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
